--- a/biology/Médecine/Maxwell_Maltz/Maxwell_Maltz.xlsx
+++ b/biology/Médecine/Maxwell_Maltz/Maxwell_Maltz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maxwell Maltz (né le 10 mars 1889 à New York[1] et mort le 7 avril 1975[2]) est un chirurgien esthétique et auteur américain, créateur de la méthode Psycho-Cybernetics, un système d'idées qui, selon lui, permet d'améliorer l'image personnelle, et ainsi de vivre une vie plus remplie et satisfaisante.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maxwell Maltz (né le 10 mars 1889 à New York et mort le 7 avril 1975) est un chirurgien esthétique et auteur américain, créateur de la méthode Psycho-Cybernetics, un système d'idées qui, selon lui, permet d'améliorer l'image personnelle, et ainsi de vivre une vie plus remplie et satisfaisante.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a écrit plusieurs ouvrages, au nombre desquels Psycho-Cybernetics en 1960, qui a longtemps été un best-seller et a influencé le travail de nombreux successeurs dans le domaine du développement personnel[3],[4],[5].
-Maltz a également écrit quelques fictions, dont une pièce de théâtre intitulée Unseen Scar (1946)[6] et un roman, The Time is Now (1975)[7] Son autobiographie, Doctor Pygmalion: The Autobiography of a Plastic Surgeon (1953)[8] a également été à la fois un succès de librairie et un livre influent[9], évoqué dans nombre d'ouvrages postérieurs concernant le corps et l'identité[10]. L'ouvrage a été réédité sous le titre Doctor Psycho-Cybernetics après la parution de son manuel d'entraînement personnel.
-Bien qu'étant sorti en 1960, Psycho-Cybernetics fait toujours partie de la sélection des cinquante meilleurs manuels d'entrainement personnel du livre 50 Self-Help Classics paru en 2008[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a écrit plusieurs ouvrages, au nombre desquels Psycho-Cybernetics en 1960, qui a longtemps été un best-seller et a influencé le travail de nombreux successeurs dans le domaine du développement personnel.
+Maltz a également écrit quelques fictions, dont une pièce de théâtre intitulée Unseen Scar (1946) et un roman, The Time is Now (1975) Son autobiographie, Doctor Pygmalion: The Autobiography of a Plastic Surgeon (1953) a également été à la fois un succès de librairie et un livre influent, évoqué dans nombre d'ouvrages postérieurs concernant le corps et l'identité. L'ouvrage a été réédité sous le titre Doctor Psycho-Cybernetics après la parution de son manuel d'entraînement personnel.
+Bien qu'étant sorti en 1960, Psycho-Cybernetics fait toujours partie de la sélection des cinquante meilleurs manuels d'entrainement personnel du livre 50 Self-Help Classics paru en 2008.
 Ce livre a été traduit en français sous le même titre.
 « Le bonheur est tout simplement un état d'esprit dans lequel nos pensées sont agréables de façon quasi permanente.» – Maxwell Maltz.
 </t>
